--- a/ressources/appartments.xlsx
+++ b/ressources/appartments.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t xml:space="preserve">Time Slot</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">10:00-11:00</t>
   </si>
   <si>
+    <t xml:space="preserve">11:00-12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-13:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00-12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00-13:00</t>
   </si>
   <si>
     <t xml:space="preserve">13:00-14:00</t>
@@ -263,7 +263,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,29 +292,25 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -324,14 +320,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -347,7 +343,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,37 +373,37 @@
         <v>6</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -415,12 +411,14 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="1"/>
     </row>
